--- a/spliced/walkingToRunning/2023-03-24_09-59-26/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_09-59-26/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9724532961845398</v>
+        <v>2.092578887939453</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3452788293361664</v>
+        <v>-8.521716117858887</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3163169622421264</v>
+        <v>1.690641283988953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3375556766986847</v>
+        <v>2.046772480010986</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2131860554218292</v>
+        <v>-4.874783515930176</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5501425266265869</v>
+        <v>0.8943560719490051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.114399790763855</v>
+        <v>4.356798648834229</v>
       </c>
       <c r="B4" t="n">
-        <v>1.803892254829407</v>
+        <v>-5.594369411468506</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8357665538787842</v>
+        <v>-4.091081619262695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.348757982254028</v>
+        <v>-5.464406967163086</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5069327354431152</v>
+        <v>3.147723197937012</v>
       </c>
       <c r="C5" t="n">
-        <v>3.028080701828003</v>
+        <v>2.375073671340942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.512808680534363</v>
+        <v>-6.766693115234375</v>
       </c>
       <c r="B6" t="n">
-        <v>1.678723573684692</v>
+        <v>7.695337295532227</v>
       </c>
       <c r="C6" t="n">
-        <v>1.33963668346405</v>
+        <v>7.492071628570557</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.064332365989685</v>
+        <v>3.930692672729492</v>
       </c>
       <c r="B7" t="n">
-        <v>0.967659592628479</v>
+        <v>9.625063896179199</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6690526604652405</v>
+        <v>-5.505752563476562</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3016029894351959</v>
+        <v>3.03800106048584</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1306280493736267</v>
+        <v>-1.461676001548767</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0697082430124282</v>
+        <v>0.6908905506134033</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.085921049118042</v>
+        <v>11.57449817657471</v>
       </c>
       <c r="B9" t="n">
-        <v>1.597230911254883</v>
+        <v>-5.450558662414551</v>
       </c>
       <c r="C9" t="n">
-        <v>1.683184385299683</v>
+        <v>-0.0244345031678676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.363388329744339</v>
+        <v>-4.411925792694092</v>
       </c>
       <c r="B10" t="n">
-        <v>3.294729709625244</v>
+        <v>2.68752908706665</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.443650007247925</v>
+        <v>3.053647041320801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.092578887939453</v>
+        <v>-4.802345275878906</v>
       </c>
       <c r="B11" t="n">
-        <v>-8.521716117858887</v>
+        <v>4.841493606567383</v>
       </c>
       <c r="C11" t="n">
-        <v>1.690641283988953</v>
+        <v>2.432597875595093</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.046772480010986</v>
+        <v>-2.648380517959595</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.874783515930176</v>
+        <v>16.29841232299805</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8943560719490051</v>
+        <v>-2.319014072418213</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.356798648834229</v>
+        <v>-0.7825698852539062</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.594369411468506</v>
+        <v>-1.549027681350708</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.091081619262695</v>
+        <v>1.645367503166199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-5.464406967163086</v>
+        <v>9.456219673156738</v>
       </c>
       <c r="B14" t="n">
-        <v>3.147723197937012</v>
+        <v>-6.493985176086426</v>
       </c>
       <c r="C14" t="n">
-        <v>2.375073671340942</v>
+        <v>-6.240252494812012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-6.766693115234375</v>
+        <v>3.910985231399536</v>
       </c>
       <c r="B15" t="n">
-        <v>7.695337295532227</v>
+        <v>0.8456867933273315</v>
       </c>
       <c r="C15" t="n">
-        <v>7.492071628570557</v>
+        <v>-5.051949977874756</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.930692672729492</v>
+        <v>-2.794321775436401</v>
       </c>
       <c r="B16" t="n">
-        <v>9.625063896179199</v>
+        <v>-2.126400947570801</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.505752563476562</v>
+        <v>-1.946171641349792</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.03800106048584</v>
+        <v>-14.5798749923706</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.461676001548767</v>
+        <v>-11.00378227233887</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6908905506134033</v>
+        <v>6.221210956573486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11.57449817657471</v>
+        <v>5.833254814147949</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.450558662414551</v>
+        <v>-11.42988777160644</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0244345031678676</v>
+        <v>6.618554592132568</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4.411925792694092</v>
+        <v>0.6635265946388245</v>
       </c>
       <c r="B19" t="n">
-        <v>2.68752908706665</v>
+        <v>-4.405001640319824</v>
       </c>
       <c r="C19" t="n">
-        <v>3.053647041320801</v>
+        <v>1.273590207099915</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-4.802345275878906</v>
+        <v>5.506218910217285</v>
       </c>
       <c r="B20" t="n">
-        <v>4.841493606567383</v>
+        <v>16.36765480041504</v>
       </c>
       <c r="C20" t="n">
-        <v>2.432597875595093</v>
+        <v>-1.815144062042236</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.648380517959595</v>
+        <v>-1.695501565933228</v>
       </c>
       <c r="B21" t="n">
-        <v>16.29841232299805</v>
+        <v>-2.446512937545776</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.319014072418213</v>
+        <v>2.133258581161499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-4.14081621170044</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.169595241546631</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.407280921936035</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.688860654830933</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10.50284194946289</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.326720356941223</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.443033814430237</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10.46609020233154</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.833072185516357</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.430516958236694</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.983938932418823</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.8599534034729</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.719237804412842</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.893374443054199</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-7.143064022064209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.8805742263793945</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.7974836230278015</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.437640905380249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-4.217514991760254</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.791641712188721</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.048105716705322</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-1.25075364112854</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12.15346908569336</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.156278014183044</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-1.032907009124756</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9.82000732421875</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-6.767558574676514</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-3.240667581558228</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-12.29328536987305</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-4.838364601135254</v>
       </c>
     </row>
   </sheetData>
